--- a/api/tests/acceptance/scripts/target-profile-migrations/migration-test.xlsx
+++ b/api/tests/acceptance/scripts/target-profile-migrations/migration-test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SUP" sheetId="1" state="visible" r:id="rId2"/>
@@ -390,7 +390,7 @@
     <t xml:space="preserve">* NB : n'ouvrir qu'un onglet par PC si besoin de renseigner capage multiforme (colonne G) et paliers (colonne I), le faire au sein d'un meme onglet</t>
   </si>
   <si>
-    <t xml:space="preserve">Profil cible qui n'existe pas </t>
+    <t xml:space="preserve">Profil cible qui n'existe pas</t>
   </si>
   <si>
     <t xml:space="preserve">OSEF</t>
@@ -4988,6 +4988,79 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEEEEEC"/>
+          <bgColor rgb="FF2D2D2D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9900FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA4C2F4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9DAF8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6D01"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5056,13 +5129,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
@@ -6267,8 +6340,8 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6278,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6642,8 +6715,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6652,25 +6725,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.24"/>
@@ -7810,8 +7883,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7820,7 +7893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF5B0F00"/>
     <pageSetUpPr fitToPage="false"/>
@@ -7834,7 +7907,7 @@
   <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8900,8 +8973,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8910,7 +8983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -30055,8 +30128,8 @@
     <hyperlink ref="K742" r:id="rId14" location="gid=1296317360" display="https://docs.google.com/spreadsheets/d/1ro_e6E7IC4qY9jfFAxw5Z8p8cVe57u0PC43hfQwO6oI/edit#gid=1296317360"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -30066,7 +30139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -35376,8 +35449,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/api/tests/acceptance/scripts/target-profile-migrations/migration-test.xlsx
+++ b/api/tests/acceptance/scripts/target-profile-migrations/migration-test.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1368">
   <si>
     <t xml:space="preserve">Attention - merci de créer un nouveau fichier pour chaque responsable. En reprenant l'onglet PRO et l'onglet Profil cible spécial. L'onglet "Profil cible spécial" servira à chaque profil cible avec du capage multiforme et/ou des paliers.  
 </t>
@@ -408,10 +408,10 @@
     <t xml:space="preserve">Profil cible avec traitement automatique -&gt; MIGRATION AUTO</t>
   </si>
   <si>
+    <t xml:space="preserve">Oui</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profil cible sans capage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oui</t>
   </si>
   <si>
     <t xml:space="preserve">Profil cible avec capage uniforme</t>
@@ -5074,7 +5074,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="76.13"/>
@@ -6294,7 +6294,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="71.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.88"/>
@@ -6667,10 +6667,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topRight" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.52"/>
@@ -6830,7 +6830,9 @@
       <c r="E4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41"/>
@@ -6856,7 +6858,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -6874,7 +6876,7 @@
         <v>2003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -6883,10 +6885,10 @@
         <v>42</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
@@ -6912,7 +6914,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>43</v>
@@ -6943,14 +6945,14 @@
         <v>42</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>42</v>
@@ -6974,14 +6976,14 @@
         <v>42</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="41"/>
       <c r="I9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>42</v>
@@ -7003,14 +7005,14 @@
         <v>42</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="43"/>
@@ -7027,14 +7029,14 @@
         <v>42</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="43"/>
@@ -7850,7 +7852,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
@@ -8941,7 +8943,7 @@
       <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.63"/>
@@ -30095,7 +30097,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
